--- a/results/main_selected_taxonomy/not_selected_mit/all_next_gene_mit.xlsx
+++ b/results/main_selected_taxonomy/not_selected_mit/all_next_gene_mit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C666"/>
+  <dimension ref="A1:D666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>NEXT_GENE_NAME_PRODUCT</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FROM_HOW_MANY_TAXONOMY</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -453,6 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +476,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D3" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -487,6 +496,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -504,6 +516,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D5" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -521,6 +536,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D6" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -538,6 +556,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D7" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -555,6 +576,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -572,6 +596,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D9" t="n">
+        <v>336</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -589,6 +616,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D10" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -606,6 +636,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -623,6 +656,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -640,6 +676,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -657,6 +696,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D14" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -674,6 +716,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -691,6 +736,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D16" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -708,6 +756,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D17" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -725,6 +776,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D18" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -742,6 +796,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -759,6 +816,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D20" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -776,6 +836,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D21" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -793,6 +856,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D22" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -810,6 +876,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -827,6 +896,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -844,6 +916,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D25" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -861,6 +936,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D26" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -878,6 +956,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D27" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -895,6 +976,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D28" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -912,6 +996,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -929,6 +1016,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -946,6 +1036,9 @@
           <t>['NADH dehydrogenase subunit 2']</t>
         </is>
       </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -963,6 +1056,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D32" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -980,6 +1076,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -997,6 +1096,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D34" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1014,6 +1116,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D35" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1031,6 +1136,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D36" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1048,6 +1156,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1065,6 +1176,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1082,6 +1196,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1099,6 +1216,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1116,6 +1236,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D41" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1133,6 +1256,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D42" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1150,6 +1276,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D43" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1167,6 +1296,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1184,6 +1316,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1201,6 +1336,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D46" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1218,6 +1356,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D47" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1235,6 +1376,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D48" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1252,6 +1396,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1269,6 +1416,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D50" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1286,6 +1436,9 @@
           <t>['tRNA-Asn']</t>
         </is>
       </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1303,6 +1456,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D52" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1320,6 +1476,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D53" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1337,6 +1496,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1354,6 +1516,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D55" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1371,6 +1536,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D56" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1388,6 +1556,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1405,6 +1576,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D58" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1422,6 +1596,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D59" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1439,6 +1616,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1456,6 +1636,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D61" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1473,6 +1656,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D62" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1490,6 +1676,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D63" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -1507,6 +1696,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D64" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -1524,6 +1716,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D65" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -1541,6 +1736,9 @@
           <t>['tRNA-Ser']</t>
         </is>
       </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -1558,6 +1756,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -1575,6 +1776,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -1592,6 +1796,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D69" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -1609,6 +1816,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D70" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -1626,6 +1836,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D71" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -1643,6 +1856,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D72" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -1660,6 +1876,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D73" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -1677,6 +1896,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D74" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -1694,6 +1916,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D75" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -1711,6 +1936,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -1728,6 +1956,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D77" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -1745,6 +1976,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D78" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -1762,6 +1996,9 @@
           <t>['tRNA-Leu']</t>
         </is>
       </c>
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -1779,6 +2016,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -1796,6 +2036,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D81" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -1813,6 +2056,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -1830,6 +2076,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D83" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -1847,6 +2096,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D84" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -1864,6 +2116,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -1881,6 +2136,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D86" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -1898,6 +2156,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -1915,6 +2176,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D88" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -1932,6 +2196,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -1949,6 +2216,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D90" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -1966,6 +2236,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D91" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -1983,6 +2256,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D92" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -2000,6 +2276,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D93" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -2017,6 +2296,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D94" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -2034,6 +2316,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D95" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -2051,6 +2336,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D96" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -2068,6 +2356,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -2085,6 +2376,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D98" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -2102,6 +2396,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D99" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -2119,6 +2416,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -2136,6 +2436,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -2153,6 +2456,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D102" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -2170,6 +2476,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D103" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -2187,6 +2496,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D104" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -2204,6 +2516,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D105" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -2221,6 +2536,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -2238,6 +2556,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D107" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -2255,6 +2576,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D108" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -2272,6 +2596,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D109" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -2289,6 +2616,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D110" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -2306,6 +2636,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D111" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -2323,6 +2656,9 @@
           <t>['s-rRNA']</t>
         </is>
       </c>
+      <c r="D112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -2340,6 +2676,9 @@
           <t>['16S ribosomal RNA']</t>
         </is>
       </c>
+      <c r="D113" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -2357,6 +2696,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D114" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -2374,6 +2716,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D115" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -2391,6 +2736,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D116" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -2408,6 +2756,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D117" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -2425,6 +2776,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -2442,6 +2796,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D119" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -2459,6 +2816,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D120" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -2476,6 +2836,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D121" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -2493,6 +2856,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D122" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -2510,6 +2876,9 @@
           <t>['s-rRNA']</t>
         </is>
       </c>
+      <c r="D123" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -2527,6 +2896,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D124" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -2544,6 +2916,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -2561,6 +2936,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D126" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -2578,6 +2956,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D127" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -2595,6 +2976,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D128" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -2612,6 +2996,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -2629,6 +3016,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D130" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -2646,6 +3036,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D131" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -2663,6 +3056,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D132" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -2680,6 +3076,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D133" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -2697,6 +3096,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D134" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -2714,6 +3116,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D135" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -2731,6 +3136,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D136" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -2748,6 +3156,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D137" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -2765,6 +3176,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D138" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -2782,6 +3196,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D139" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -2799,6 +3216,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D140" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -2816,6 +3236,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D141" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -2833,6 +3256,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D142" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -2850,6 +3276,9 @@
           <t>['tRNA-Leu']</t>
         </is>
       </c>
+      <c r="D143" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -2867,6 +3296,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -2884,6 +3316,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D145" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -2901,6 +3336,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D146" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -2918,6 +3356,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D147" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -2935,6 +3376,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D148" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -2952,6 +3396,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -2969,6 +3416,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D150" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -2986,6 +3436,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D151" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -3003,6 +3456,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D152" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -3020,6 +3476,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D153" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -3037,6 +3496,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D154" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -3054,6 +3516,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D155" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -3071,6 +3536,9 @@
           <t>['tRNA-Ser']</t>
         </is>
       </c>
+      <c r="D156" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -3088,6 +3556,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D157" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -3105,6 +3576,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D158" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -3122,6 +3596,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D159" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -3139,6 +3616,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D160" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -3156,6 +3636,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -3173,6 +3656,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D162" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -3190,6 +3676,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -3207,6 +3696,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D164" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -3224,6 +3716,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D165" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -3241,6 +3736,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D166" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -3258,6 +3756,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D167" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -3275,6 +3776,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D168" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -3292,6 +3796,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D169" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -3309,6 +3816,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D170" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -3326,6 +3836,9 @@
           <t>['tRNA-Cys']</t>
         </is>
       </c>
+      <c r="D171" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -3343,6 +3856,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D172" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -3360,6 +3876,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D173" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -3377,6 +3896,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -3394,6 +3916,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D175" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -3411,6 +3936,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D176" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -3428,6 +3956,9 @@
           <t>['s-rRNA']</t>
         </is>
       </c>
+      <c r="D177" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -3445,6 +3976,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D178" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -3462,6 +3996,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D179" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -3479,6 +4016,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D180" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -3496,6 +4036,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D181" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -3513,6 +4056,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D182" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -3530,6 +4076,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -3547,6 +4096,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D184" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -3564,6 +4116,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D185" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -3581,6 +4136,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D186" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -3598,6 +4156,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D187" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -3615,6 +4176,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D188" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -3632,6 +4196,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D189" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -3649,6 +4216,9 @@
           <t>['cytochrome b']</t>
         </is>
       </c>
+      <c r="D190" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -3666,6 +4236,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D191" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -3683,6 +4256,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D192" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -3700,6 +4276,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -3717,6 +4296,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D194" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -3734,6 +4316,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D195" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -3751,6 +4336,9 @@
           <t>['tRNA-Ser']</t>
         </is>
       </c>
+      <c r="D196" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -3768,6 +4356,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D197" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -3785,6 +4376,9 @@
           <t>['tRNA-Tyr']</t>
         </is>
       </c>
+      <c r="D198" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -3802,6 +4396,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D199" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -3819,6 +4416,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D200" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -3836,6 +4436,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D201" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -3853,6 +4456,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D202" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -3870,6 +4476,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D203" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -3887,6 +4496,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D204" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -3904,6 +4516,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D205" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -3921,6 +4536,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D206" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -3938,6 +4556,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D207" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -3955,6 +4576,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D208" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -3972,6 +4596,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D209" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -3989,6 +4616,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D210" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -4006,6 +4636,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D211" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -4023,6 +4656,9 @@
           <t>['NADH dehydrogenase subunit 3']</t>
         </is>
       </c>
+      <c r="D212" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -4040,6 +4676,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D213" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -4057,6 +4696,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D214" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -4074,6 +4716,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -4091,6 +4736,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D216" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -4108,6 +4756,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D217" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -4125,6 +4776,9 @@
           <t>['tRNA-Ser']</t>
         </is>
       </c>
+      <c r="D218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -4142,6 +4796,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D219" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -4159,6 +4816,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D220" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -4176,6 +4836,9 @@
           <t>['tRNA-Leu']</t>
         </is>
       </c>
+      <c r="D221" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -4193,6 +4856,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D222" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -4210,6 +4876,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D223" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -4227,6 +4896,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D224" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -4244,6 +4916,9 @@
           <t>['tRNA-Leu']</t>
         </is>
       </c>
+      <c r="D225" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -4261,6 +4936,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D226" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -4278,6 +4956,9 @@
           <t>['tRNA-Tyr']</t>
         </is>
       </c>
+      <c r="D227" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -4295,6 +4976,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D228" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -4312,6 +4996,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D229" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -4329,6 +5016,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D230" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -4346,6 +5036,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D231" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -4363,6 +5056,9 @@
           <t>['cytochrome c oxidase subunit III']</t>
         </is>
       </c>
+      <c r="D232" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -4380,6 +5076,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D233" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -4397,6 +5096,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D234" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -4414,6 +5116,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D235" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -4431,6 +5136,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D236" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -4448,6 +5156,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D237" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -4465,6 +5176,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D238" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -4482,6 +5196,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D239" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -4499,6 +5216,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D240" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -4516,6 +5236,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D241" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -4533,6 +5256,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D242" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -4550,6 +5276,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D243" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -4567,6 +5296,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D244" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -4584,6 +5316,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D245" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -4601,6 +5336,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D246" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -4618,6 +5356,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D247" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -4635,6 +5376,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D248" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -4652,6 +5396,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D249" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -4669,6 +5416,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D250" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -4686,6 +5436,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D251" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -4703,6 +5456,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D252" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -4720,6 +5476,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D253" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -4737,6 +5496,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D254" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -4754,6 +5516,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D255" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -4771,6 +5536,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D256" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -4788,6 +5556,9 @@
           <t>['12S ribosomal RNA']</t>
         </is>
       </c>
+      <c r="D257" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -4805,6 +5576,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D258" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -4822,6 +5596,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D259" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -4839,6 +5616,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D260" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -4856,6 +5636,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D261" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -4873,6 +5656,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D262" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -4890,6 +5676,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D263" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -4907,6 +5696,9 @@
           <t>['tRNA-Gly']</t>
         </is>
       </c>
+      <c r="D264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -4924,6 +5716,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D265" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -4941,6 +5736,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D266" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -4958,6 +5756,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D267" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -4975,6 +5776,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D268" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -4992,6 +5796,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D269" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -5009,6 +5816,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D270" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
@@ -5026,6 +5836,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D271" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -5043,6 +5856,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D272" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -5060,6 +5876,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D273" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -5077,6 +5896,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D274" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -5094,6 +5916,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D275" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -5111,6 +5936,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D276" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -5128,6 +5956,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D277" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -5145,6 +5976,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D278" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -5162,6 +5996,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D279" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -5179,6 +6016,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D280" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -5196,6 +6036,9 @@
           <t>['NADH dehydrogenase subunit 5']</t>
         </is>
       </c>
+      <c r="D281" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -5213,6 +6056,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D282" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -5230,6 +6076,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D283" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -5247,6 +6096,9 @@
           <t>['tRNA-Ala']</t>
         </is>
       </c>
+      <c r="D284" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -5264,6 +6116,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D285" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -5281,6 +6136,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D286" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -5298,6 +6156,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D287" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -5315,6 +6176,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D288" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -5332,6 +6196,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D289" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -5349,6 +6216,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D290" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -5366,6 +6236,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -5383,6 +6256,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D292" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -5400,6 +6276,9 @@
           <t>['cytochrome c oxidase subunit I']</t>
         </is>
       </c>
+      <c r="D293" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -5417,6 +6296,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D294" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -5434,6 +6316,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D295" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -5451,6 +6336,9 @@
           <t>['cytochrome b']</t>
         </is>
       </c>
+      <c r="D296" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -5468,6 +6356,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D297" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -5485,6 +6376,9 @@
           <t>['NADH dehydrogenase subunit 1']</t>
         </is>
       </c>
+      <c r="D298" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -5502,6 +6396,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D299" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -5519,6 +6416,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D300" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -5536,6 +6436,9 @@
           <t>['tRNA-Lys']</t>
         </is>
       </c>
+      <c r="D301" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -5553,6 +6456,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D302" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -5570,6 +6476,9 @@
           <t>['NADH dehydrogenase subunit 6']</t>
         </is>
       </c>
+      <c r="D303" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -5587,6 +6496,9 @@
           <t>['ATP synthase F0 subunit 6']</t>
         </is>
       </c>
+      <c r="D304" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -5604,6 +6516,9 @@
           <t>['tRNA-Trp']</t>
         </is>
       </c>
+      <c r="D305" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -5621,6 +6536,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D306" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -5638,6 +6556,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D307" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -5655,6 +6576,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D308" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -5672,6 +6596,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D309" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -5689,6 +6616,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D310" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -5706,6 +6636,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D311" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -5723,6 +6656,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D312" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -5740,6 +6676,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D313" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -5757,6 +6696,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D314" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -5774,6 +6716,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D315" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -5791,6 +6736,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D316" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -5808,6 +6756,9 @@
           <t>['cytochrome c oxidase subunit III']</t>
         </is>
       </c>
+      <c r="D317" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -5825,6 +6776,9 @@
           <t>['ATP synthase F0 subunit 6']</t>
         </is>
       </c>
+      <c r="D318" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -5842,6 +6796,9 @@
           <t>['tRNA-Leu']</t>
         </is>
       </c>
+      <c r="D319" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -5859,6 +6816,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D320" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -5876,6 +6836,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D321" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -5893,6 +6856,9 @@
           <t>['tRNA-Leu']</t>
         </is>
       </c>
+      <c r="D322" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -5910,6 +6876,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D323" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -5927,6 +6896,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D324" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -5944,6 +6916,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D325" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -5961,6 +6936,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D326" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -5978,6 +6956,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D327" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -5995,6 +6976,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D328" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -6012,6 +6996,9 @@
           <t>['NADH dehydrogenase subunit 5']</t>
         </is>
       </c>
+      <c r="D329" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
@@ -6029,6 +7016,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D330" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -6046,6 +7036,9 @@
           <t>['tRNA-Tyr']</t>
         </is>
       </c>
+      <c r="D331" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -6063,6 +7056,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D332" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -6080,6 +7076,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D333" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -6097,6 +7096,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D334" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -6114,6 +7116,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D335" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -6131,6 +7136,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -6148,6 +7156,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D337" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -6165,6 +7176,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D338" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -6182,6 +7196,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D339" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -6199,6 +7216,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D340" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -6216,6 +7236,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D341" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -6233,6 +7256,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D342" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -6250,6 +7276,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D343" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -6267,6 +7296,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D344" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -6284,6 +7316,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D345" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -6301,6 +7336,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D346" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -6318,6 +7356,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D347" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -6335,6 +7376,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D348" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -6352,6 +7396,9 @@
           <t>['16S ribosomal RNA']</t>
         </is>
       </c>
+      <c r="D349" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
@@ -6369,6 +7416,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D350" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
@@ -6386,6 +7436,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D351" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -6403,6 +7456,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D352" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -6420,6 +7476,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D353" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -6437,6 +7496,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D354" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -6454,6 +7516,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D355" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -6471,6 +7536,9 @@
           <t>['tRNA-Tyr']</t>
         </is>
       </c>
+      <c r="D356" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -6488,6 +7556,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D357" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
@@ -6505,6 +7576,9 @@
           <t>['tRNA-Cys']</t>
         </is>
       </c>
+      <c r="D358" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
@@ -6522,6 +7596,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D359" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
@@ -6539,6 +7616,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D360" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -6556,6 +7636,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D361" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
@@ -6573,6 +7656,9 @@
           <t>['12S ribosomal RNA']</t>
         </is>
       </c>
+      <c r="D362" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
@@ -6590,6 +7676,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D363" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
@@ -6607,6 +7696,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D364" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
@@ -6624,6 +7716,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D365" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
@@ -6641,6 +7736,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D366" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
@@ -6658,6 +7756,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D367" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
@@ -6675,6 +7776,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D368" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
@@ -6692,6 +7796,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D369" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
@@ -6709,6 +7816,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D370" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
@@ -6726,6 +7836,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D371" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
@@ -6743,6 +7856,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D372" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
@@ -6760,6 +7876,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D373" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
@@ -6777,6 +7896,9 @@
           <t>['cytochrome c oxidase subunit III']</t>
         </is>
       </c>
+      <c r="D374" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
@@ -6794,6 +7916,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D375" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
@@ -6811,6 +7936,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D376" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
@@ -6828,6 +7956,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D377" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
@@ -6845,6 +7976,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D378" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
@@ -6862,6 +7996,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D379" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
@@ -6879,6 +8016,9 @@
           <t>['tRNA-Ala']</t>
         </is>
       </c>
+      <c r="D380" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
@@ -6896,6 +8036,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D381" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
@@ -6913,6 +8056,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D382" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
@@ -6930,6 +8076,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D383" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
@@ -6947,6 +8096,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D384" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
@@ -6964,6 +8116,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D385" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
@@ -6981,6 +8136,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D386" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
@@ -6998,6 +8156,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D387" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
@@ -7015,6 +8176,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
@@ -7032,6 +8196,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D389" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
@@ -7049,6 +8216,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D390" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
@@ -7066,6 +8236,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D391" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
@@ -7083,6 +8256,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D392" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
@@ -7100,6 +8276,9 @@
           <t>['12S ribosomal RNA']</t>
         </is>
       </c>
+      <c r="D393" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
@@ -7117,6 +8296,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D394" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
@@ -7134,6 +8316,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D395" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
@@ -7151,6 +8336,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D396" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
@@ -7168,6 +8356,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D397" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
@@ -7185,6 +8376,9 @@
           <t>['tRNA-His']</t>
         </is>
       </c>
+      <c r="D398" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
@@ -7202,6 +8396,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D399" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
@@ -7219,6 +8416,9 @@
           <t>['tRNA-Leu']</t>
         </is>
       </c>
+      <c r="D400" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
@@ -7236,6 +8436,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D401" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
@@ -7253,6 +8456,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D402" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
@@ -7270,6 +8476,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D403" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
@@ -7287,6 +8496,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D404" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
@@ -7304,6 +8516,9 @@
           <t>['ATP synthase F0 subunit 8']</t>
         </is>
       </c>
+      <c r="D405" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
@@ -7321,6 +8536,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D406" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
@@ -7338,6 +8556,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D407" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
@@ -7355,6 +8576,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D408" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
@@ -7372,6 +8596,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D409" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
@@ -7389,6 +8616,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D410" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
@@ -7406,6 +8636,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D411" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
@@ -7423,6 +8656,9 @@
           <t>['tRNA-Lys']</t>
         </is>
       </c>
+      <c r="D412" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
@@ -7440,6 +8676,9 @@
           <t>['tRNA-Val']</t>
         </is>
       </c>
+      <c r="D413" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
@@ -7457,6 +8696,9 @@
           <t>['tRNA-Lys']</t>
         </is>
       </c>
+      <c r="D414" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
@@ -7474,6 +8716,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D415" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
@@ -7491,6 +8736,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D416" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
@@ -7508,6 +8756,9 @@
           <t>['NADH dehydrogenase subunit 6']</t>
         </is>
       </c>
+      <c r="D417" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
@@ -7525,6 +8776,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D418" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
@@ -7542,6 +8796,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D419" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
@@ -7559,6 +8816,9 @@
           <t>['tRNA-Asp']</t>
         </is>
       </c>
+      <c r="D420" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
@@ -7576,6 +8836,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D421" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
@@ -7593,6 +8856,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D422" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
@@ -7610,6 +8876,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D423" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
@@ -7627,6 +8896,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D424" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
@@ -7644,6 +8916,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D425" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
@@ -7661,6 +8936,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D426" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
@@ -7678,6 +8956,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D427" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
@@ -7695,6 +8976,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D428" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
@@ -7712,6 +8996,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D429" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
@@ -7729,6 +9016,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D430" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
@@ -7746,6 +9036,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D431" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
@@ -7763,6 +9056,9 @@
           <t>['tRNA-Leu']</t>
         </is>
       </c>
+      <c r="D432" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
@@ -7780,6 +9076,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D433" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
@@ -7797,6 +9096,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D434" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
@@ -7814,6 +9116,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D435" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
@@ -7831,6 +9136,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D436" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
@@ -7848,6 +9156,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D437" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
@@ -7865,6 +9176,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D438" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
@@ -7882,6 +9196,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D439" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
@@ -7899,6 +9216,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D440" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
@@ -7916,6 +9236,9 @@
           <t>['tRNA-Leu']</t>
         </is>
       </c>
+      <c r="D441" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
@@ -7933,6 +9256,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D442" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="inlineStr">
@@ -7950,6 +9276,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D443" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
@@ -7967,6 +9296,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D444" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
@@ -7984,6 +9316,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D445" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
@@ -8001,6 +9336,9 @@
           <t>['NADH dehydrogenase subunit 5']</t>
         </is>
       </c>
+      <c r="D446" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
@@ -8018,6 +9356,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D447" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
@@ -8035,6 +9376,9 @@
           <t>['tRNA-Lys']</t>
         </is>
       </c>
+      <c r="D448" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
@@ -8052,6 +9396,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D449" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
@@ -8069,6 +9416,9 @@
           <t>['tRNA-Cys']</t>
         </is>
       </c>
+      <c r="D450" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="inlineStr">
@@ -8086,6 +9436,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D451" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
@@ -8103,6 +9456,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D452" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="1" t="inlineStr">
@@ -8120,6 +9476,9 @@
           <t>['tRNA-Leu']</t>
         </is>
       </c>
+      <c r="D453" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="1" t="inlineStr">
@@ -8137,6 +9496,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D454" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="1" t="inlineStr">
@@ -8154,6 +9516,9 @@
           <t>['tRNA-Tyr']</t>
         </is>
       </c>
+      <c r="D455" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
@@ -8171,6 +9536,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D456" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="1" t="inlineStr">
@@ -8188,6 +9556,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D457" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
@@ -8205,6 +9576,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D458" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
@@ -8222,6 +9596,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D459" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="1" t="inlineStr">
@@ -8239,6 +9616,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D460" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
@@ -8256,6 +9636,9 @@
           <t>['tRNA-Tyr']</t>
         </is>
       </c>
+      <c r="D461" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
@@ -8273,6 +9656,9 @@
           <t>['tRNA-Trp']</t>
         </is>
       </c>
+      <c r="D462" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
@@ -8290,6 +9676,9 @@
           <t>['tRNA-Thr']</t>
         </is>
       </c>
+      <c r="D463" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
@@ -8307,6 +9696,9 @@
           <t>['cytochrome b']</t>
         </is>
       </c>
+      <c r="D464" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
@@ -8324,6 +9716,9 @@
           <t>['tRNA-Gly']</t>
         </is>
       </c>
+      <c r="D465" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="1" t="inlineStr">
@@ -8341,6 +9736,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D466" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="1" t="inlineStr">
@@ -8358,6 +9756,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D467" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="1" t="inlineStr">
@@ -8375,6 +9776,9 @@
           <t>['tRNA-Leu']</t>
         </is>
       </c>
+      <c r="D468" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="1" t="inlineStr">
@@ -8392,6 +9796,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D469" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="1" t="inlineStr">
@@ -8409,6 +9816,9 @@
           <t>['tRNA-Ser']</t>
         </is>
       </c>
+      <c r="D470" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
@@ -8426,6 +9836,9 @@
           <t>['tRNA-Leu']</t>
         </is>
       </c>
+      <c r="D471" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="1" t="inlineStr">
@@ -8443,6 +9856,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D472" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
@@ -8460,6 +9876,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D473" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="1" t="inlineStr">
@@ -8477,6 +9896,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D474" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="1" t="inlineStr">
@@ -8494,6 +9916,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D475" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
@@ -8511,6 +9936,9 @@
           <t>['tRNA-Ser']</t>
         </is>
       </c>
+      <c r="D476" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
@@ -8528,6 +9956,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D477" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="inlineStr">
@@ -8545,6 +9976,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D478" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
@@ -8562,6 +9996,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D479" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="inlineStr">
@@ -8579,6 +10016,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D480" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
@@ -8596,6 +10036,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D481" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="inlineStr">
@@ -8613,6 +10056,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D482" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
@@ -8630,6 +10076,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D483" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="inlineStr">
@@ -8647,6 +10096,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D484" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
@@ -8664,6 +10116,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D485" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
@@ -8681,6 +10136,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D486" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="inlineStr">
@@ -8698,6 +10156,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D487" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
@@ -8715,6 +10176,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D488" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
@@ -8732,6 +10196,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D489" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
@@ -8749,6 +10216,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D490" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
@@ -8766,6 +10236,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D491" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="inlineStr">
@@ -8783,6 +10256,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D492" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="inlineStr">
@@ -8800,6 +10276,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D493" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
@@ -8817,6 +10296,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D494" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
@@ -8834,6 +10316,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D495" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
@@ -8851,6 +10336,9 @@
           <t>['cytochrome c oxidase subunit II']</t>
         </is>
       </c>
+      <c r="D496" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
@@ -8868,6 +10356,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D497" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
@@ -8885,6 +10376,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D498" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
@@ -8902,6 +10396,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D499" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
@@ -8919,6 +10416,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D500" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
@@ -8936,6 +10436,9 @@
           <t>['tRNA-Leu']</t>
         </is>
       </c>
+      <c r="D501" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
@@ -8953,6 +10456,9 @@
           <t>['tRNA-Val']</t>
         </is>
       </c>
+      <c r="D502" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
@@ -8970,6 +10476,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D503" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
@@ -8987,6 +10496,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D504" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
@@ -9004,6 +10516,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D505" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
@@ -9021,6 +10536,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D506" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
@@ -9038,6 +10556,9 @@
           <t>['NADH dehydrogenase subunit 2']</t>
         </is>
       </c>
+      <c r="D507" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
@@ -9055,6 +10576,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D508" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
@@ -9072,6 +10596,9 @@
           <t>['12S ribosomal RNA']</t>
         </is>
       </c>
+      <c r="D509" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
@@ -9089,6 +10616,9 @@
           <t>['tRNA-Val']</t>
         </is>
       </c>
+      <c r="D510" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
@@ -9106,6 +10636,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D511" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
@@ -9123,6 +10656,9 @@
           <t>['16S ribosomal RNA']</t>
         </is>
       </c>
+      <c r="D512" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
@@ -9140,6 +10676,9 @@
           <t>['tRNA-Thr']</t>
         </is>
       </c>
+      <c r="D513" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
@@ -9157,6 +10696,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D514" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="inlineStr">
@@ -9174,6 +10716,9 @@
           <t>['NADH dehydrogenase subunit 2']</t>
         </is>
       </c>
+      <c r="D515" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="inlineStr">
@@ -9191,6 +10736,9 @@
           <t>['12S ribosomal RNA']</t>
         </is>
       </c>
+      <c r="D516" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="inlineStr">
@@ -9208,6 +10756,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D517" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="inlineStr">
@@ -9225,6 +10776,9 @@
           <t>['tRNA-Val']</t>
         </is>
       </c>
+      <c r="D518" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="inlineStr">
@@ -9242,6 +10796,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D519" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="inlineStr">
@@ -9259,6 +10816,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D520" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="inlineStr">
@@ -9276,6 +10836,9 @@
           <t>['tRNA-Leu']</t>
         </is>
       </c>
+      <c r="D521" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="inlineStr">
@@ -9293,6 +10856,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D522" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="inlineStr">
@@ -9310,6 +10876,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D523" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="inlineStr">
@@ -9327,6 +10896,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D524" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="inlineStr">
@@ -9344,6 +10916,9 @@
           <t>['cytochrome c oxidase subunit III']</t>
         </is>
       </c>
+      <c r="D525" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="inlineStr">
@@ -9361,6 +10936,9 @@
           <t>['tRNA-Leu']</t>
         </is>
       </c>
+      <c r="D526" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="inlineStr">
@@ -9378,6 +10956,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D527" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="inlineStr">
@@ -9395,6 +10976,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D528" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="inlineStr">
@@ -9412,6 +10996,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D529" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="inlineStr">
@@ -9429,6 +11016,9 @@
           <t>['NADH dehydrogenase subunit 5']</t>
         </is>
       </c>
+      <c r="D530" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="inlineStr">
@@ -9446,6 +11036,9 @@
           <t>['16S ribosomal RNA']</t>
         </is>
       </c>
+      <c r="D531" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="inlineStr">
@@ -9463,6 +11056,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D532" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="inlineStr">
@@ -9480,6 +11076,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D533" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="inlineStr">
@@ -9497,6 +11096,9 @@
           <t>['tRNA-Ser']</t>
         </is>
       </c>
+      <c r="D534" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
@@ -9514,6 +11116,9 @@
           <t>['ATP synthase F0 subunit 8']</t>
         </is>
       </c>
+      <c r="D535" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="inlineStr">
@@ -9531,6 +11136,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D536" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="inlineStr">
@@ -9548,6 +11156,9 @@
           <t>['tRNA-Leu']</t>
         </is>
       </c>
+      <c r="D537" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="inlineStr">
@@ -9565,6 +11176,9 @@
           <t>['tRNA-Leu']</t>
         </is>
       </c>
+      <c r="D538" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="inlineStr">
@@ -9582,6 +11196,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D539" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="inlineStr">
@@ -9599,6 +11216,9 @@
           <t>['tRNA-Trp']</t>
         </is>
       </c>
+      <c r="D540" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="inlineStr">
@@ -9616,6 +11236,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D541" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="inlineStr">
@@ -9633,6 +11256,9 @@
           <t>['NADH dehydrogenase subunit 6']</t>
         </is>
       </c>
+      <c r="D542" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="inlineStr">
@@ -9650,6 +11276,9 @@
           <t>['NADH dehydrogenase subunit 1']</t>
         </is>
       </c>
+      <c r="D543" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="inlineStr">
@@ -9667,6 +11296,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D544" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="inlineStr">
@@ -9684,6 +11316,9 @@
           <t>['cytochrome c oxidase subunit II']</t>
         </is>
       </c>
+      <c r="D545" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="inlineStr">
@@ -9701,6 +11336,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D546" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="inlineStr">
@@ -9718,6 +11356,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D547" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="inlineStr">
@@ -9735,6 +11376,9 @@
           <t>['tRNA-Asn']</t>
         </is>
       </c>
+      <c r="D548" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="inlineStr">
@@ -9752,6 +11396,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D549" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="inlineStr">
@@ -9769,6 +11416,9 @@
           <t>['tRNA-Leu']</t>
         </is>
       </c>
+      <c r="D550" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="inlineStr">
@@ -9786,6 +11436,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D551" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="inlineStr">
@@ -9803,6 +11456,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D552" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="inlineStr">
@@ -9820,6 +11476,9 @@
           <t>['16S ribosomal RNA']</t>
         </is>
       </c>
+      <c r="D553" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="inlineStr">
@@ -9837,6 +11496,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D554" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="inlineStr">
@@ -9854,6 +11516,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D555" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="inlineStr">
@@ -9871,6 +11536,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D556" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="inlineStr">
@@ -9888,6 +11556,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D557" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="inlineStr">
@@ -9905,6 +11576,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D558" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="inlineStr">
@@ -9922,6 +11596,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D559" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="inlineStr">
@@ -9939,6 +11616,9 @@
           <t>['tRNA-Lys']</t>
         </is>
       </c>
+      <c r="D560" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="inlineStr">
@@ -9956,6 +11636,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D561" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="inlineStr">
@@ -9973,6 +11656,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D562" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="inlineStr">
@@ -9990,6 +11676,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D563" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="inlineStr">
@@ -10007,6 +11696,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D564" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="inlineStr">
@@ -10024,6 +11716,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D565" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="inlineStr">
@@ -10041,6 +11736,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D566" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="inlineStr">
@@ -10058,6 +11756,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D567" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="inlineStr">
@@ -10075,6 +11776,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D568" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="inlineStr">
@@ -10092,6 +11796,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D569" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="inlineStr">
@@ -10109,6 +11816,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D570" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="inlineStr">
@@ -10126,6 +11836,9 @@
           <t>['NADH dehydrogenase subunit 1']</t>
         </is>
       </c>
+      <c r="D571" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="inlineStr">
@@ -10143,6 +11856,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D572" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="inlineStr">
@@ -10160,6 +11876,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D573" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="inlineStr">
@@ -10177,6 +11896,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D574" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="inlineStr">
@@ -10194,6 +11916,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D575" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="inlineStr">
@@ -10211,6 +11936,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D576" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="inlineStr">
@@ -10228,6 +11956,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D577" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="inlineStr">
@@ -10245,6 +11976,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D578" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="inlineStr">
@@ -10262,6 +11996,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D579" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="inlineStr">
@@ -10279,6 +12016,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D580" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="inlineStr">
@@ -10296,6 +12036,9 @@
           <t>['tRNA-Leu']</t>
         </is>
       </c>
+      <c r="D581" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="inlineStr">
@@ -10313,6 +12056,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D582" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="inlineStr">
@@ -10330,6 +12076,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D583" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="inlineStr">
@@ -10347,6 +12096,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D584" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="inlineStr">
@@ -10364,6 +12116,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D585" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="inlineStr">
@@ -10381,6 +12136,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D586" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="inlineStr">
@@ -10398,6 +12156,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D587" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="inlineStr">
@@ -10415,6 +12176,9 @@
           <t>['tRNA-Cys']</t>
         </is>
       </c>
+      <c r="D588" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="inlineStr">
@@ -10432,6 +12196,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D589" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="inlineStr">
@@ -10449,6 +12216,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D590" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="inlineStr">
@@ -10466,6 +12236,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D591" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="inlineStr">
@@ -10483,6 +12256,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D592" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="inlineStr">
@@ -10500,6 +12276,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D593" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="inlineStr">
@@ -10517,6 +12296,9 @@
           <t>['tRNA-Pro']</t>
         </is>
       </c>
+      <c r="D594" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="inlineStr">
@@ -10534,6 +12316,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D595" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="inlineStr">
@@ -10551,6 +12336,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D596" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="inlineStr">
@@ -10568,6 +12356,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D597" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="inlineStr">
@@ -10585,6 +12376,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D598" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="inlineStr">
@@ -10602,6 +12396,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D599" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="inlineStr">
@@ -10619,6 +12416,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D600" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="inlineStr">
@@ -10636,6 +12436,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D601" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="inlineStr">
@@ -10653,6 +12456,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D602" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="inlineStr">
@@ -10670,6 +12476,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D603" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="inlineStr">
@@ -10687,6 +12496,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D604" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="inlineStr">
@@ -10704,6 +12516,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D605" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="inlineStr">
@@ -10721,6 +12536,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D606" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="inlineStr">
@@ -10738,6 +12556,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D607" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="inlineStr">
@@ -10755,6 +12576,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D608" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="inlineStr">
@@ -10772,6 +12596,9 @@
           <t>['tRNA-Glu']</t>
         </is>
       </c>
+      <c r="D609" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="inlineStr">
@@ -10789,6 +12616,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D610" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="inlineStr">
@@ -10806,6 +12636,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D611" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="inlineStr">
@@ -10823,6 +12656,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D612" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="inlineStr">
@@ -10840,6 +12676,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D613" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="inlineStr">
@@ -10857,6 +12696,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D614" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="inlineStr">
@@ -10874,6 +12716,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D615" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="inlineStr">
@@ -10891,6 +12736,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D616" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="inlineStr">
@@ -10908,6 +12756,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D617" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="inlineStr">
@@ -10925,6 +12776,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D618" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="inlineStr">
@@ -10942,6 +12796,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D619" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="inlineStr">
@@ -10959,6 +12816,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D620" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="inlineStr">
@@ -10976,6 +12836,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D621" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="inlineStr">
@@ -10993,6 +12856,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D622" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="inlineStr">
@@ -11010,6 +12876,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D623" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="inlineStr">
@@ -11027,6 +12896,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D624" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="inlineStr">
@@ -11044,6 +12916,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D625" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="inlineStr">
@@ -11061,6 +12936,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D626" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="inlineStr">
@@ -11078,6 +12956,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D627" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="inlineStr">
@@ -11095,6 +12976,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D628" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="inlineStr">
@@ -11112,6 +12996,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D629" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="inlineStr">
@@ -11129,6 +13016,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D630" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="inlineStr">
@@ -11146,6 +13036,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D631" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="inlineStr">
@@ -11163,6 +13056,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D632" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="inlineStr">
@@ -11180,6 +13076,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D633" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="inlineStr">
@@ -11197,6 +13096,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D634" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="inlineStr">
@@ -11214,6 +13116,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D635" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="inlineStr">
@@ -11231,6 +13136,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D636" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="inlineStr">
@@ -11248,6 +13156,9 @@
           <t>['tRNA-Met']</t>
         </is>
       </c>
+      <c r="D637" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="inlineStr">
@@ -11265,6 +13176,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D638" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="inlineStr">
@@ -11282,6 +13196,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D639" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="inlineStr">
@@ -11299,6 +13216,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D640" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="inlineStr">
@@ -11316,6 +13236,9 @@
           <t>['tRNA-Gln']</t>
         </is>
       </c>
+      <c r="D641" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="inlineStr">
@@ -11333,6 +13256,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D642" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="inlineStr">
@@ -11350,6 +13276,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D643" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="inlineStr">
@@ -11367,6 +13296,9 @@
           <t>['s-rRNA']</t>
         </is>
       </c>
+      <c r="D644" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="inlineStr">
@@ -11384,6 +13316,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D645" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="inlineStr">
@@ -11401,6 +13336,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D646" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="inlineStr">
@@ -11418,6 +13356,9 @@
           <t>['tRNA-Cys']</t>
         </is>
       </c>
+      <c r="D647" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="inlineStr">
@@ -11435,6 +13376,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D648" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="inlineStr">
@@ -11452,6 +13396,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D649" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="inlineStr">
@@ -11469,6 +13416,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D650" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="inlineStr">
@@ -11486,6 +13436,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D651" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="inlineStr">
@@ -11503,6 +13456,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D652" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="inlineStr">
@@ -11520,6 +13476,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D653" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="inlineStr">
@@ -11537,6 +13496,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D654" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="inlineStr">
@@ -11554,6 +13516,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D655" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="inlineStr">
@@ -11571,6 +13536,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D656" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="inlineStr">
@@ -11588,6 +13556,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D657" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="inlineStr">
@@ -11605,6 +13576,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D658" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="inlineStr">
@@ -11622,6 +13596,9 @@
           <t>['cytochrome c oxidase subunit III']</t>
         </is>
       </c>
+      <c r="D659" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="inlineStr">
@@ -11639,6 +13616,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D660" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="inlineStr">
@@ -11656,6 +13636,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D661" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="inlineStr">
@@ -11673,6 +13656,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D662" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="inlineStr">
@@ -11690,6 +13676,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D663" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="inlineStr">
@@ -11707,6 +13696,9 @@
           <t>['tRNA-Phe']</t>
         </is>
       </c>
+      <c r="D664" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="inlineStr">
@@ -11724,6 +13716,9 @@
           <t>['tRNA-Ile']</t>
         </is>
       </c>
+      <c r="D665" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="inlineStr">
@@ -11740,6 +13735,9 @@
         <is>
           <t>['cytochrome b']</t>
         </is>
+      </c>
+      <c r="D666" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
